--- a/Documents/TeamBacklog.xlsx
+++ b/Documents/TeamBacklog.xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="Instructions" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Lab 1" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="lab2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Lab3" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miCNeO642sKq9CgWPAnvE306zNDjw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mj09GA7+/mABX4Yl5nW3RFz8WYM3Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
   <si>
     <t>Activities During the Planning Meet:</t>
   </si>
@@ -507,6 +508,21 @@
   <si>
     <t>4. Media Wiki</t>
   </si>
+  <si>
+    <t>1. Project Plan</t>
+  </si>
+  <si>
+    <t>Estimated Time Required for the Task（1-21 Days）</t>
+  </si>
+  <si>
+    <t>2. Risk Management Plan</t>
+  </si>
+  <si>
+    <t>3. Meeting Minutes 4</t>
+  </si>
+  <si>
+    <t>5. Coding the app</t>
+  </si>
 </sst>
 </file>
 
@@ -539,12 +555,12 @@
     <font>
       <sz val="13.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
   </fonts>
   <fills count="6">
@@ -781,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -885,6 +901,9 @@
     <xf borderId="14" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="14" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -902,6 +921,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -30073,4 +30096,1256 @@
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="47.63"/>
+    <col customWidth="1" min="3" max="3" width="33.0"/>
+    <col customWidth="1" min="16" max="16" width="12.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="58.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="I4" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="J4" s="28">
+        <f>AVERAGE(D5:I5)</f>
+        <v>8.333333333</v>
+      </c>
+      <c r="K4" s="28">
+        <f>AVERAGE(D6:I6)</f>
+        <v>7.333333333</v>
+      </c>
+      <c r="L4" s="28">
+        <f>AVERAGE(D7:I7)</f>
+        <v>13</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>19.0</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="28">
+        <f>AVERAGE(D4:I4)</f>
+        <v>8.333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35">
+        <v>19.0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>18.0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>17.0</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I9" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="J9" s="28">
+        <f>AVERAGE(D10:I10)</f>
+        <v>7.833333333</v>
+      </c>
+      <c r="K9" s="28">
+        <f>AVERAGE(D11:I11)</f>
+        <v>5.666666667</v>
+      </c>
+      <c r="L9" s="28">
+        <f>AVERAGE(D12:I12)</f>
+        <v>6.333333333</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="28">
+        <f>AVERAGE(D9:I9)</f>
+        <v>8.333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F10" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="F14" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="I14" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="J14" s="28">
+        <f>AVERAGE(D15:I15)</f>
+        <v>5.333333333</v>
+      </c>
+      <c r="K14" s="28">
+        <f>AVERAGE(D16:I16)</f>
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="28">
+        <f>AVERAGE(D17:I17)</f>
+        <v>2</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="28">
+        <f>AVERAGE(D14:I14)</f>
+        <v>8.833333333</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="44">
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J19" s="28">
+        <f>AVERAGE(D20:I20)</f>
+        <v>6.666666667</v>
+      </c>
+      <c r="K19" s="28">
+        <f>AVERAGE(D21:I21)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L19" s="28">
+        <f>AVERAGE(D22:I22)</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="28">
+        <f>AVERAGE(D19:I19)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J24" s="28">
+        <f>AVERAGE(D25:I25)</f>
+        <v>9.666666667</v>
+      </c>
+      <c r="K24" s="28">
+        <f>AVERAGE(D26:I26)</f>
+        <v>9.5</v>
+      </c>
+      <c r="L24" s="28">
+        <f>AVERAGE(D27:I27)</f>
+        <v>19.33333333</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>21.0</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="28">
+        <f>AVERAGE(D24:I24)</f>
+        <v>8.666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="G26" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35">
+        <v>21.0</v>
+      </c>
+      <c r="E27" s="35">
+        <v>18.0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>21.0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>21.0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>21.0</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="S19:S23"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4 O9 O14 O19 O24">
+      <formula1>"Through Discussion,Allocated by Team Leader"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4 P9 P14 P19 P24">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 S3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4 R9 R14 R19 R24">
+      <formula1>Instructions!$E$7:$I$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:O3 M4 M9 M14 M19 M24">
+      <formula1>$D$2:$I$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:I6 D8:I11 D13:I16 D18:I21 D23:I26 D28:I28">
+      <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:I3">
+      <formula1>"Excited,Happy,Neutral,Sad,Depressed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:I7 D12:I12 D17:I17 D22:I22 D27:I27">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/TeamBacklog.xlsx
+++ b/Documents/TeamBacklog.xlsx
@@ -5,21 +5,22 @@
   <sheets>
     <sheet state="visible" name="Instructions" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Lab 1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="lab2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Lab2" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Lab3" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Lab4" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mj09GA7+/mABX4Yl5nW3RFz8WYM3Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhNDPYJ2HTC727pWlMvkGm2pnKYgw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="77">
   <si>
     <t>Activities During the Planning Meet:</t>
   </si>
@@ -523,6 +524,27 @@
   <si>
     <t>5. Coding the app</t>
   </si>
+  <si>
+    <t>1. Design Report on Software Maintainability</t>
+  </si>
+  <si>
+    <t>2. Release Plan</t>
+  </si>
+  <si>
+    <t>3. Software Configuration Management Plan</t>
+  </si>
+  <si>
+    <t>4. Change Management Plan</t>
+  </si>
+  <si>
+    <t>5. Meeting Minutes 5</t>
+  </si>
+  <si>
+    <t>6. Coding the app</t>
+  </si>
+  <si>
+    <t>7. Media Wiki</t>
+  </si>
 </sst>
 </file>
 
@@ -797,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -904,6 +926,9 @@
     <xf borderId="14" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -925,6 +950,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -31247,7 +31276,55 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
     <mergeCell ref="J4:J8"/>
     <mergeCell ref="K4:K8"/>
     <mergeCell ref="L4:L8"/>
@@ -31255,67 +31332,19 @@
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="P4:P8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="L9:L13"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="N9:N13"/>
     <mergeCell ref="O9:O13"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="P9:P13"/>
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="S14:S18"/>
-    <mergeCell ref="Q14:Q18"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="N24:N28"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="P24:P28"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="S19:S23"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4 O9 O14 O19 O24">
@@ -31348,4 +31377,1680 @@
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="47.63"/>
+    <col customWidth="1" min="3" max="3" width="33.0"/>
+    <col customWidth="1" min="16" max="16" width="12.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="58.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="J4" s="28">
+        <f>AVERAGE(D5:I5)</f>
+        <v>7.666666667</v>
+      </c>
+      <c r="K4" s="28">
+        <f>AVERAGE(D6:I6)</f>
+        <v>6.833333333</v>
+      </c>
+      <c r="L4" s="28">
+        <f>AVERAGE(D7:I7)</f>
+        <v>7</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="28">
+        <f>AVERAGE(D4:I4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I8" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="J9" s="28">
+        <f>AVERAGE(D10:I10)</f>
+        <v>7.166666667</v>
+      </c>
+      <c r="K9" s="28">
+        <f>AVERAGE(D11:I11)</f>
+        <v>5.333333333</v>
+      </c>
+      <c r="L9" s="28">
+        <f>AVERAGE(D12:I12)</f>
+        <v>6.5</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>6.0</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="28">
+        <f>AVERAGE(D9:I9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="F10" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="F14" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="I14" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="J14" s="28">
+        <f>AVERAGE(D15:I15)</f>
+        <v>6</v>
+      </c>
+      <c r="K14" s="28">
+        <f>AVERAGE(D16:I16)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L14" s="28">
+        <f>AVERAGE(D17:I17)</f>
+        <v>3.833333333</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="28">
+        <f>AVERAGE(D14:I14)</f>
+        <v>8.666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="H18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J19" s="28">
+        <f>AVERAGE(D20:I20)</f>
+        <v>6.666666667</v>
+      </c>
+      <c r="K19" s="28">
+        <f>AVERAGE(D21:I21)</f>
+        <v>4.5</v>
+      </c>
+      <c r="L19" s="28">
+        <f>AVERAGE(D22:I22)</f>
+        <v>3.333333333</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="28">
+        <f>AVERAGE(D19:I19)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="E22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J24" s="28">
+        <f>AVERAGE(D25:I25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="K24" s="28">
+        <f>AVERAGE(D26:I26)</f>
+        <v>7</v>
+      </c>
+      <c r="L24" s="28">
+        <f>AVERAGE(D27:I27)</f>
+        <v>3.166666667</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="28">
+        <f>AVERAGE(D24:I24)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G28" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="46">
+        <v>10.0</v>
+      </c>
+      <c r="E29" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F29" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G29" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I29" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="J29" s="28">
+        <f>AVERAGE(D30:I30)</f>
+        <v>9.166666667</v>
+      </c>
+      <c r="K29" s="28">
+        <f>AVERAGE(D31:I31)</f>
+        <v>10</v>
+      </c>
+      <c r="L29" s="28">
+        <f>AVERAGE(D32:I32)</f>
+        <v>14</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>14.0</v>
+      </c>
+      <c r="R29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="28">
+        <f>AVERAGE(D29:I29)</f>
+        <v>8.833333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="E30" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F30" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="H30" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="I30" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="E31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="F31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="G31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="H31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="I31" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="33"/>
+      <c r="B32" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="H32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>14.0</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="E33" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F33" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G33" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="H33" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="I33" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E34" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F34" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G34" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="H34" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I34" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="J34" s="28">
+        <f>AVERAGE(D35:I35)</f>
+        <v>7.666666667</v>
+      </c>
+      <c r="K34" s="28">
+        <f>AVERAGE(D36:I36)</f>
+        <v>4.333333333</v>
+      </c>
+      <c r="L34" s="28">
+        <f>AVERAGE(D37:I37)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="28">
+        <f>AVERAGE(D34:I34)</f>
+        <v>8.333333333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E35" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F35" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G35" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H35" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I35" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="36"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="F36" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="G36" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="H36" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="I36" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="36"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="33"/>
+      <c r="B37" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H37" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="36"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="11"/>
+      <c r="B38" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="E38" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F38" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G38" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H38" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="I38" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S34:S38"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="S29:S33"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="O29:O33"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4 O9 O14 O19 O24 O29 O34">
+      <formula1>"Through Discussion,Allocated by Team Leader"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4 P9 P14 P19 P24 P29 P34">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 S3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4 R9 R14 R19 R24 R29 R34">
+      <formula1>Instructions!$E$7:$I$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:O3 M4 M9 M14 M19 M24 M29 M34">
+      <formula1>$D$2:$I$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:I6 D8:I11 D13:I16 D18:I21 D23:I26 D28:I31 D33:I36 D38:I38">
+      <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:I3">
+      <formula1>"Excited,Happy,Neutral,Sad,Depressed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:I7 D12:I12 D17:I17 D22:I22 D27:I27 D32:I32 D37:I37">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/TeamBacklog.xlsx
+++ b/Documents/TeamBacklog.xlsx
@@ -8,19 +8,20 @@
     <sheet state="visible" name="Lab2" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Lab3" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Lab4" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Lab5" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhNDPYJ2HTC727pWlMvkGm2pnKYgw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7miQ2w2El23PnkMm07OyId8G1gXmkQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="84">
   <si>
     <t>Activities During the Planning Meet:</t>
   </si>
@@ -545,6 +546,27 @@
   <si>
     <t>7. Media Wiki</t>
   </si>
+  <si>
+    <t>1. CMMI level 2 definition</t>
+  </si>
+  <si>
+    <t>Estimated Time Required for the Task（1-7 Days）</t>
+  </si>
+  <si>
+    <t>2. Test Cases and Requirements Test Coverage Report</t>
+  </si>
+  <si>
+    <t>3. Test Plan</t>
+  </si>
+  <si>
+    <t>4. Presentation Slides</t>
+  </si>
+  <si>
+    <t>5. Meeting Minutes 6</t>
+  </si>
+  <si>
+    <t>6. Media Wiki</t>
+  </si>
 </sst>
 </file>
 
@@ -819,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -929,6 +951,9 @@
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="18" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -954,6 +979,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -32930,29 +32959,6 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="M29:M33"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="K34:K38"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="M34:M38"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="N34:N38"/>
-    <mergeCell ref="O34:O38"/>
     <mergeCell ref="Q14:Q18"/>
     <mergeCell ref="R14:R18"/>
     <mergeCell ref="J14:J18"/>
@@ -32960,67 +32966,90 @@
     <mergeCell ref="L14:L18"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="N14:N18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="J19:J23"/>
     <mergeCell ref="K19:K23"/>
     <mergeCell ref="L19:L23"/>
     <mergeCell ref="M19:M23"/>
     <mergeCell ref="N19:N23"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="R24:R28"/>
     <mergeCell ref="J24:J28"/>
     <mergeCell ref="K24:K28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
     <mergeCell ref="N24:N28"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="R34:R38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="K34:K38"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="M34:M38"/>
+    <mergeCell ref="N34:N38"/>
+    <mergeCell ref="O34:O38"/>
+    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="R34:R38"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="O24:O28"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="P14:P18"/>
-    <mergeCell ref="Q19:Q23"/>
-    <mergeCell ref="R19:R23"/>
-    <mergeCell ref="P19:P23"/>
-    <mergeCell ref="R24:R28"/>
-    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="Q4:Q8"/>
     <mergeCell ref="R4:R8"/>
     <mergeCell ref="S4:S8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
     <mergeCell ref="N4:N8"/>
     <mergeCell ref="O4:O8"/>
     <mergeCell ref="P4:P8"/>
     <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="P9:P13"/>
     <mergeCell ref="R9:R13"/>
     <mergeCell ref="S9:S13"/>
     <mergeCell ref="S14:S18"/>
     <mergeCell ref="S19:S23"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
     <mergeCell ref="S34:S38"/>
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
     <mergeCell ref="N9:N13"/>
-    <mergeCell ref="Q24:Q28"/>
-    <mergeCell ref="Q29:Q33"/>
-    <mergeCell ref="P29:P33"/>
-    <mergeCell ref="R29:R33"/>
-    <mergeCell ref="S29:S33"/>
-    <mergeCell ref="N29:N33"/>
-    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="P9:P13"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4 O9 O14 O19 O24 O29 O34">
@@ -33053,4 +33082,1468 @@
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="47.63"/>
+    <col customWidth="1" min="3" max="3" width="33.0"/>
+    <col customWidth="1" min="16" max="16" width="12.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="58.5" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="21"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="H4" s="41">
+        <v>8.0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="J4" s="28">
+        <f>AVERAGE(D5:I5)</f>
+        <v>7.666666667</v>
+      </c>
+      <c r="K4" s="28">
+        <f>AVERAGE(D6:I6)</f>
+        <v>6.833333333</v>
+      </c>
+      <c r="L4" s="28">
+        <f>AVERAGE(D7:I7)</f>
+        <v>6</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="28">
+        <f>AVERAGE(D4:I4)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E5" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="F5" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I5" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="33"/>
+      <c r="B6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="F6" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>7.0</v>
+      </c>
+      <c r="I6" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33"/>
+      <c r="B7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="F8" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="I8" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="J9" s="28">
+        <f>AVERAGE(D10:I10)</f>
+        <v>7.166666667</v>
+      </c>
+      <c r="K9" s="28">
+        <f>AVERAGE(D11:I11)</f>
+        <v>5.333333333</v>
+      </c>
+      <c r="L9" s="28">
+        <f>AVERAGE(D12:I12)</f>
+        <v>5.666666667</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>6.0</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="28">
+        <f>AVERAGE(D9:I9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E10" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="F10" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G10" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="I10" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="E11" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="H12" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11"/>
+      <c r="B13" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="E13" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="I13" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="F14" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>10.0</v>
+      </c>
+      <c r="I14" s="41">
+        <v>7.0</v>
+      </c>
+      <c r="J14" s="28">
+        <f>AVERAGE(D15:I15)</f>
+        <v>6.166666667</v>
+      </c>
+      <c r="K14" s="28">
+        <f>AVERAGE(D16:I16)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L14" s="28">
+        <f>AVERAGE(D17:I17)</f>
+        <v>3.5</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="28">
+        <f>AVERAGE(D14:I14)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="E15" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="F15" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="E16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="I16" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33"/>
+      <c r="B17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="H17" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="H18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J19" s="28">
+        <f>AVERAGE(D20:I20)</f>
+        <v>7</v>
+      </c>
+      <c r="K19" s="28">
+        <f>AVERAGE(D21:I21)</f>
+        <v>8</v>
+      </c>
+      <c r="L19" s="28">
+        <f>AVERAGE(D22:I22)</f>
+        <v>5.166666667</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="28">
+        <f>AVERAGE(D19:I19)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H21" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="E22" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>4.0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>6.0</v>
+      </c>
+      <c r="H22" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I22" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+      <c r="B23" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="H23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="H24" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="J24" s="28">
+        <f>AVERAGE(D25:I25)</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="28">
+        <f>AVERAGE(D26:I26)</f>
+        <v>2</v>
+      </c>
+      <c r="L24" s="28">
+        <f>AVERAGE(D27:I27)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="28">
+        <f>AVERAGE(D24:I24)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="33"/>
+      <c r="B26" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="H26" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="36"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H27" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11"/>
+      <c r="B28" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="G28" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="H28" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5.0</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="40">
+        <v>9.0</v>
+      </c>
+      <c r="E29" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="F29" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="G29" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="I29" s="41">
+        <v>9.0</v>
+      </c>
+      <c r="J29" s="28">
+        <f>AVERAGE(D30:I30)</f>
+        <v>7.666666667</v>
+      </c>
+      <c r="K29" s="28">
+        <f>AVERAGE(D31:I31)</f>
+        <v>1.666666667</v>
+      </c>
+      <c r="L29" s="28">
+        <f>AVERAGE(D32:I32)</f>
+        <v>1.5</v>
+      </c>
+      <c r="M29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="R29" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="28">
+        <f>AVERAGE(D29:I29)</f>
+        <v>8.333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="E30" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F30" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="G30" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="H30" s="42">
+        <v>8.0</v>
+      </c>
+      <c r="I30" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="36"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="D31" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="F31" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="G31" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="H31" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="I31" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="36"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="33"/>
+      <c r="B32" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="36"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="11"/>
+      <c r="B33" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="E33" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="F33" s="42">
+        <v>10.0</v>
+      </c>
+      <c r="G33" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="H33" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="I33" s="42">
+        <v>9.0</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="Q14:Q18"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="O24:O28"/>
+    <mergeCell ref="Q24:Q28"/>
+    <mergeCell ref="Q29:Q33"/>
+    <mergeCell ref="R29:R33"/>
+    <mergeCell ref="P29:P33"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="P14:P18"/>
+    <mergeCell ref="Q19:Q23"/>
+    <mergeCell ref="R19:R23"/>
+    <mergeCell ref="P19:P23"/>
+    <mergeCell ref="R24:R28"/>
+    <mergeCell ref="P24:P28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="M29:M33"/>
+    <mergeCell ref="N29:N33"/>
+    <mergeCell ref="O29:O33"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="Q4:Q8"/>
+    <mergeCell ref="R4:R8"/>
+    <mergeCell ref="S4:S8"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="P4:P8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="N4:N8"/>
+    <mergeCell ref="O4:O8"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="S14:S18"/>
+    <mergeCell ref="S19:S23"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="N24:N28"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="K4:K8"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="S29:S33"/>
+  </mergeCells>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O4 O9 O14 O19 O24 O29">
+      <formula1>"Through Discussion,Allocated by Team Leader"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4 P9 P14 P19 P24 P29">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L3 S3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4 R9 R14 R19 R24 R29">
+      <formula1>Instructions!$E$7:$I$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M3:O3 M4 M9 M14 M19 M24 M29">
+      <formula1>$D$2:$I$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:I6 D8:I11 D13:I16 D18:I21 D23:I26 D28:I31 D33:I33">
+      <formula1>"0.0,1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D3:I3">
+      <formula1>"Excited,Happy,Neutral,Sad,Depressed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D7:I7 D12:I12 D17:I17 D22:I22 D27:I27 D32:I32">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3">
+      <formula1>"1.0,2.0,3.0,4.0,5.0,6.0,7.0,8.0,9.0,10.0"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>